--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM028.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L9-報表作業/MonthlyLM028.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E315A7-0329-4B21-B224-EFDA4E98A693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C07D126-5F38-471B-80A9-3CB67ED3F204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,11 @@
     <sheet name="SP" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="151">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -113,10 +104,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -133,9 +120,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -569,6 +553,9 @@
   <si>
     <t>2021-12-10 智偉修改</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -773,7 +760,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -789,10 +776,10 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -802,9 +789,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -816,7 +800,7 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -825,9 +809,6 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -872,9 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -912,9 +890,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,9 +930,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -987,26 +965,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1039,26 +1000,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1234,109 +1178,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="18" customWidth="1"/>
-    <col min="2" max="2" width="25.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.21875" style="15" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="17"/>
+    <col min="1" max="1" width="6" style="16" customWidth="1"/>
+    <col min="2" max="2" width="25.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.21875" style="14" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="29" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>68</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="11"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1355,832 +1299,832 @@
       <c r="F8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="E9" s="19">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="E9" s="21">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="16">
+        <v>2</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="19">
+        <v>2</v>
+      </c>
+      <c r="F10" s="15"/>
+      <c r="G10" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="16">
+        <v>3</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="16">
+        <v>4</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="19">
+        <v>4</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="16">
+        <v>5</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="25">
+        <v>7</v>
+      </c>
+      <c r="F13" s="25"/>
+      <c r="G13" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="B14" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="19">
+        <v>3</v>
+      </c>
+      <c r="F14" s="15"/>
+      <c r="G14" s="24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="19">
+        <v>3</v>
+      </c>
+      <c r="F15" s="25"/>
+      <c r="G15" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="25">
+        <v>6</v>
+      </c>
+      <c r="F16" s="25">
+        <v>4</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="25">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>10</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="25">
+        <v>4</v>
+      </c>
+      <c r="F18" s="25"/>
+      <c r="G18" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="25">
+        <v>2</v>
+      </c>
+      <c r="F19" s="25"/>
+      <c r="G19" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="25">
+        <v>2</v>
+      </c>
+      <c r="F20" s="25"/>
+      <c r="G20" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="25">
+        <v>16</v>
+      </c>
+      <c r="F21" s="25">
+        <v>2</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>14</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="25">
+        <v>1</v>
+      </c>
+      <c r="F22" s="25"/>
+      <c r="G22" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>15</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="25">
+        <v>1</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="25">
+        <v>2</v>
+      </c>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="16">
+        <v>18</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="25">
+        <v>5</v>
+      </c>
+      <c r="F26" s="25"/>
+      <c r="G26" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E27" s="25">
+        <v>6</v>
+      </c>
+      <c r="F27" s="25">
+        <v>4</v>
+      </c>
+      <c r="G27" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="16">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" s="25">
+        <v>6</v>
+      </c>
+      <c r="F28" s="25">
+        <v>4</v>
+      </c>
+      <c r="G28" s="21" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16">
+        <v>21</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="25">
+        <v>6</v>
+      </c>
+      <c r="F29" s="25">
+        <v>4</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16">
+        <v>22</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" s="25">
+        <v>6</v>
+      </c>
+      <c r="F30" s="25">
+        <v>4</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="16">
+        <v>23</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="25">
+        <v>6</v>
+      </c>
+      <c r="F31" s="25">
+        <v>4</v>
+      </c>
+      <c r="G31" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="16">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="22">
+        <v>1</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16">
+        <v>25</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22">
+        <v>2</v>
+      </c>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="16">
+        <v>26</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="C34" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="22">
+        <v>4</v>
+      </c>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="16">
+        <v>27</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22">
+        <v>2</v>
+      </c>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="16">
+        <v>28</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="16">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="22">
+        <v>1</v>
+      </c>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="16">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="22">
+        <v>1</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="16">
+        <v>31</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="16">
+        <v>32</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D40" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="16">
+        <v>33</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="25">
+        <v>6</v>
+      </c>
+      <c r="F41" s="25">
+        <v>4</v>
+      </c>
+      <c r="G41" s="21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="16">
+        <v>34</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="25">
+        <v>8</v>
+      </c>
+      <c r="F42" s="25"/>
+      <c r="G42" s="21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="16">
+        <v>35</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="16">
+        <v>36</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E44" s="22">
+        <v>6</v>
+      </c>
+      <c r="F44" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G44" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="16">
+        <v>37</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="25"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="16">
         <v>38</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="21">
-        <v>2</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
-        <v>3</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
-        <v>4</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="21">
-        <v>4</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
-        <v>5</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="27">
-        <v>7</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="B46" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="22">
         <v>6</v>
       </c>
-      <c r="B14" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="21">
-        <v>3</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="26" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="21">
-        <v>3</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="27">
-        <v>6</v>
-      </c>
-      <c r="F16" s="27">
-        <v>4</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="27">
-        <v>2</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="22" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18">
-        <v>10</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="27">
-        <v>4</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="27">
-        <v>2</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="H19" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
-        <v>12</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D20" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="27">
-        <v>2</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>13</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="27">
-        <v>16</v>
-      </c>
-      <c r="F21" s="27">
-        <v>2</v>
-      </c>
-      <c r="G21" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="27">
-        <v>1</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>15</v>
-      </c>
-      <c r="B23" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="27">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>16</v>
-      </c>
-      <c r="B24" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="27">
-        <v>2</v>
-      </c>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18">
-        <v>17</v>
-      </c>
-      <c r="B25" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="27">
-        <v>2</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18">
-        <v>18</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="27">
-        <v>5</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18">
-        <v>19</v>
-      </c>
-      <c r="B27" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="27">
-        <v>6</v>
-      </c>
-      <c r="F27" s="27">
-        <v>4</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18">
-        <v>20</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="27">
-        <v>6</v>
-      </c>
-      <c r="F28" s="27">
-        <v>4</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18">
-        <v>21</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="27">
-        <v>6</v>
-      </c>
-      <c r="F29" s="27">
-        <v>4</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18">
-        <v>22</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D30" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="27">
-        <v>6</v>
-      </c>
-      <c r="F30" s="27">
-        <v>4</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18">
-        <v>23</v>
-      </c>
-      <c r="B31" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C31" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E31" s="27">
-        <v>6</v>
-      </c>
-      <c r="F31" s="27">
-        <v>4</v>
-      </c>
-      <c r="G31" s="23" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18">
-        <v>24</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="E32" s="24">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18">
-        <v>25</v>
-      </c>
-      <c r="B33" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="C33" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="24">
-        <v>2</v>
-      </c>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18">
-        <v>26</v>
-      </c>
-      <c r="B34" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="24">
-        <v>4</v>
-      </c>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="18">
-        <v>27</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="24">
-        <v>2</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="18">
-        <v>28</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="24">
-        <v>2</v>
-      </c>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="18">
-        <v>29</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="24">
-        <v>1</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18">
-        <v>30</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="24">
-        <v>1</v>
-      </c>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="18">
-        <v>31</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C39" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D39" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="24">
-        <v>1</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18">
-        <v>32</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="E40" s="24">
-        <v>1</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18">
-        <v>33</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E41" s="27">
-        <v>6</v>
-      </c>
-      <c r="F41" s="27">
-        <v>4</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18">
-        <v>34</v>
-      </c>
-      <c r="B42" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="27">
-        <v>8</v>
-      </c>
-      <c r="F42" s="27"/>
-      <c r="G42" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18">
-        <v>35</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18">
-        <v>36</v>
-      </c>
-      <c r="B44" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="24">
-        <v>6</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="31" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18">
-        <v>37</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" s="27"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="18">
-        <v>38</v>
-      </c>
-      <c r="B46" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="E46" s="24">
-        <v>6</v>
-      </c>
-      <c r="F46" s="27"/>
+      <c r="F46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2228,13 +2172,13 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2259,26 +2203,26 @@
     <col min="3" max="3" width="41.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
